--- a/data/xlsx/Movie.xlsx
+++ b/data/xlsx/Movie.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -3550,6 +3550,90 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Kengen13</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MID_Movie_K13</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MID_H_Movie_K13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>G_拠点_神竜の章初回</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>106</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>BGM_Evt_Advent_Byleth_Stop</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Patch0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Kengen14</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MID_Movie_K14</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MID_H_Movie_K14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>101</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>BGM_Evt_Advent_Marth_Stop</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Patch0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/Movie.xlsx
+++ b/data/xlsx/Movie.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -3559,12 +3559,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MID_Movie_K13</t>
+          <t>纹章士艾黛尔贾特</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MID_H_Movie_K13</t>
+          <t>自“三位级长的手镯”显现的
+纹章士艾黛尔贾特、纹章士帝弥托利
+与纹章士库罗德。</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3601,12 +3603,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MID_Movie_K14</t>
+          <t>纹章士琪姬</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MID_H_Movie_K14</t>
+          <t>自“先祖神龙的手镯”显现的
+纹章士琪姬。</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3634,6 +3637,135 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Kengen15</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>纹章士海克托尔</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>自“热血猛将的手镯”显现的
+纹章士海克托尔。</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>102</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>BGM_Evt_Advent_Lyn_Stop</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Patch1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Kengen16</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>纹章士塞涅里欧</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>自“苍色参谋的手镯”显现的
+纹章士塞涅里欧。</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>103</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>BGM_Evt_Advent_Ike_Stop</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Patch1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Kengen17</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>纹章士卡美拉</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>自“黑暗妖艳的手镯”显现的
+纹章士卡美拉。</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>G005</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>105</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>BGM_Evt_Advent_Corrin_Stop</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Patch1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
